--- a/02_TestCases/Login_TestCases.xlsx
+++ b/02_TestCases/Login_TestCases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FDS\QA-Manual-Portfolio\02_TestCases\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2671A420-AD5F-4593-A81F-D4DF7D87751A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1520" yWindow="0" windowWidth="14020" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,175 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-01</t>
+  </si>
+  <si>
+    <t>Valid Login</t>
+  </si>
+  <si>
+    <t>Username=Admin, Password=admin123</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-02</t>
+  </si>
+  <si>
+    <t>Invalid Password</t>
+  </si>
+  <si>
+    <t>Username=Admin, Password=salah123</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-03</t>
+  </si>
+  <si>
+    <t>Invalid Username</t>
+  </si>
+  <si>
+    <t>Username=salah, Password=admin123</t>
+  </si>
+  <si>
+    <t>TC-LOGIN-04</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TC-FP-01</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Username=Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Case : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project: E-commerce Website  </t>
+  </si>
+  <si>
+    <t>Tester:  Leorensus Marpaung</t>
+  </si>
+  <si>
+    <t>Browser opens on Login page</t>
+  </si>
+  <si>
+    <t>1. Enter  username: Admin                                           2. Enter  password:  admin123                                  3. Clik Login</t>
+  </si>
+  <si>
+    <t>User successfully logged into the dasboard</t>
+  </si>
+  <si>
+    <t>Login successfully entered the dasboard</t>
+  </si>
+  <si>
+    <t>1. Enter username: Admin                           2. Enter  password: salah123            3. Clik Login</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The error massage  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Invalid credentials" appears</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter username: salah                     2. Enter  password: admin123          3. Clik Login</t>
+  </si>
+  <si>
+    <t>Emplty Field</t>
+  </si>
+  <si>
+    <t>Click the Login button without fillin anything</t>
+  </si>
+  <si>
+    <t>No error message appears/ No response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click “Forgot your password?” </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Confirmation massage </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Password reset link sent to your email"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: 16  September 2025  </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +216,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +525,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" customWidth="1"/>
+    <col min="6" max="6" width="24.7265625" customWidth="1"/>
+    <col min="7" max="7" width="20.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>